--- a/data/hole/data.xlsx
+++ b/data/hole/data.xlsx
@@ -463,7 +463,7 @@
         <v>http://www.sunport-hall.jp/</v>
       </c>
       <c r="H2" t="str">
-        <v>改修工事のため2022年4月から2024年3月まで市民ギャラリー及びコミュニケーションプラザを除き休館します。</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>月火水木金土日</v>
@@ -475,7 +475,7 @@
         <v>22:00</v>
       </c>
       <c r="L2" t="str">
-        <v>ﾘﾊｰｻﾙ室及び練習室は23時まで。12/29～1/3は終日利用不可</v>
+        <v>リハーサル室及び練習室は23時まで。12/29～1/3は終日利用不可</v>
       </c>
     </row>
     <row r="3">
